--- a/forecast_summary_B083SJLWL9.xlsx
+++ b/forecast_summary_B083SJLWL9.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>141.8861270461729</v>
       </c>
       <c r="D2" t="n">
-        <v>144.7050923251059</v>
+        <v>144.7802176202913</v>
       </c>
       <c r="E2" t="n">
         <v>73</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>321.9591633359518</v>
       </c>
       <c r="D3" t="n">
-        <v>324.8999801044868</v>
+        <v>324.7336583557401</v>
       </c>
       <c r="E3" t="n">
         <v>43</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>475.805295150935</v>
       </c>
       <c r="D4" t="n">
-        <v>478.5969927331539</v>
+        <v>478.6087092395751</v>
       </c>
       <c r="E4" t="n">
         <v>43</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>414.0796054197539</v>
       </c>
       <c r="D5" t="n">
-        <v>416.923668488179</v>
+        <v>416.7864004206465</v>
       </c>
       <c r="E5" t="n">
         <v>35</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>91.56686036424723</v>
       </c>
       <c r="D6" t="n">
-        <v>94.28008032329251</v>
+        <v>94.4339716869066</v>
       </c>
       <c r="E6" t="n">
         <v>36</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-256.1529061118173</v>
       </c>
       <c r="D7" t="n">
-        <v>-253.3822427285932</v>
+        <v>-253.2159908739601</v>
       </c>
       <c r="E7" t="n">
         <v>40</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-287.7206659556513</v>
       </c>
       <c r="D8" t="n">
-        <v>-284.4745411457027</v>
+        <v>-284.8165259964783</v>
       </c>
       <c r="E8" t="n">
         <v>41</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>74.1737039162073</v>
       </c>
       <c r="D9" t="n">
-        <v>76.84685465406851</v>
+        <v>76.97522656844576</v>
       </c>
       <c r="E9" t="n">
         <v>40</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>492.7754522445405</v>
       </c>
       <c r="D10" t="n">
-        <v>495.646819119877</v>
+        <v>495.6559990832595</v>
       </c>
       <c r="E10" t="n">
         <v>40</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>529.2881167939615</v>
       </c>
       <c r="D11" t="n">
-        <v>531.9793385493471</v>
+        <v>532.1782069617635</v>
       </c>
       <c r="E11" t="n">
         <v>41</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>129.8707343560496</v>
       </c>
       <c r="D12" t="n">
-        <v>132.670050988272</v>
+        <v>132.8369167251186</v>
       </c>
       <c r="E12" t="n">
         <v>42</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-271.7140441648114</v>
       </c>
       <c r="D13" t="n">
-        <v>-268.9976701568206</v>
+        <v>-268.9270240395153</v>
       </c>
       <c r="E13" t="n">
         <v>42</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-212.5492571403768</v>
       </c>
       <c r="D14" t="n">
-        <v>-209.9287252235356</v>
+        <v>-209.481020885811</v>
       </c>
       <c r="E14" t="n">
         <v>41</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>263.0597734997601</v>
       </c>
       <c r="D15" t="n">
-        <v>265.8295545610006</v>
+        <v>265.8522841960725</v>
       </c>
       <c r="E15" t="n">
         <v>43</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>622.459806906979</v>
       </c>
       <c r="D16" t="n">
-        <v>625.3874259177414</v>
+        <v>625.3652715999585</v>
       </c>
       <c r="E16" t="n">
         <v>43</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>443.3003420600904</v>
       </c>
       <c r="D17" t="n">
-        <v>446.4072505274944</v>
+        <v>446.2554597665388</v>
       </c>
       <c r="E17" t="n">
         <v>42</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-80.57525341882375</v>
       </c>
       <c r="D18" t="n">
-        <v>-77.61864572444698</v>
+        <v>-77.79047563268253</v>
       </c>
       <c r="E18" t="n">
         <v>42</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-336.8576880531336</v>
       </c>
       <c r="D19" t="n">
-        <v>-334.2331927625723</v>
+        <v>-334.0790238611248</v>
       </c>
       <c r="E19" t="n">
         <v>43</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-1.25603522636648</v>
       </c>
       <c r="D20" t="n">
-        <v>1.567767797608912</v>
+        <v>1.593258833675864</v>
       </c>
       <c r="E20" t="n">
         <v>46</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>563.322053707494</v>
       </c>
       <c r="D21" t="n">
-        <v>565.924887068817</v>
+        <v>566.1451840024871</v>
       </c>
       <c r="E21" t="n">
         <v>42</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B650M AORUS ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
